--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>602.4621209282699</v>
+        <v>421.5626070691574</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8169999122619629</v>
+        <v>0.747999906539917</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.70795447336429e-13</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.2870033872534</v>
+        <v>51.56260706915739</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.900339945282137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.895457486282564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>554.1800000000161</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,50 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -896,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>31.76867181805999</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.66483080554379</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.49313212343961</v>
+        <v>41.86770052517326</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.5000066666637</v>
+        <v>38.88067814214679</v>
       </c>
     </row>
     <row r="7">
@@ -958,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,118 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.65499999999986</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1210,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.03499999999985</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.29499999999986</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1232,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.50999999999985</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.86999999999985</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1254,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>154.9199999999996</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1265,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1276,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.9800000000007</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1287,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.3850000000007</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1298,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.7900000000012</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1309,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>199.5750000000009</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -1320,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>203.5550000000007</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -1331,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>184.955000000001</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
@@ -1342,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>203.4850000000014</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -1353,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.7950000000015</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
@@ -1364,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>158.4050000000026</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23">
@@ -1375,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>156.8400000000005</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24">
@@ -1386,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>147.0950000000022</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1397,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>155.8350000000018</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
@@ -1408,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>158.4750000000018</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -1419,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -1430,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1441,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000073</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1452,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1463,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1474,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>199.5750000000009</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33">
@@ -1485,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>203.5550000000007</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
@@ -1496,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>184.955000000001</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -1507,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>203.4850000000014</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36">
@@ -1518,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.7950000000015</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37">
@@ -1529,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>154.9200000000001</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38">
@@ -1540,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>152.65</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39">
@@ -1551,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.9800000000014</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40">
@@ -1562,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.3850000000002</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41">
@@ -1573,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7900000000009</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>49.57500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1631,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>53.55500000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1642,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>34.95500000000101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1653,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>53.48500000000143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1664,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>53.79500000000152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1675,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.920000000000073</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1686,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2.65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1697,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7.980000000001382</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1708,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.385000000000218</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.790000000000873</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2082,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2093,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2104,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2115,111 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
